--- a/mcmaster_excel/Metric_Steel_Pan_Head_Screws_with_Internal-Tooth_Lock_Washer.xlsx
+++ b/mcmaster_excel/Metric_Steel_Pan_Head_Screws_with_Internal-Tooth_Lock_Washer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N37"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,83 +434,59 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg.,mm</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia., mm</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>HeadHt., mm</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>OD,mm</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Thick.,mm</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>DriveSize</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Tensile Strength, psi</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Specifications Met</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr"/>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>M2 × 0.4 mm</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Washer</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
@@ -519,84 +495,72 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>Zinc-Plated Steel</t>
-        </is>
-      </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>Lg.,mm</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Threading</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>HeadDia., mm</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>HeadHt., mm</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>OD,mm</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>Thick.,mm</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>No. 1</t>
+          <t>DriveSize</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>60,000</t>
+          <t>Tensile Strength, psi</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>ASME B18.13.1M</t>
+          <t>Specifications Met</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>90403A856</t>
-        </is>
-      </c>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>$15.37</t>
+          <t>Pkg.</t>
         </is>
       </c>
       <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>Zinc-Plated Steel</t>
-        </is>
-      </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -646,15 +610,19 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>90403A857</t>
+          <t>90403A856</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>15.37</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr"/>
+          <t>$15.37</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>M2 × 0.4 mm</t>
+        </is>
+      </c>
       <c r="N4" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -664,7 +632,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -714,15 +682,19 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>90403A858</t>
+          <t>90403A857</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>15.41</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr"/>
+          <t>15.37</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>M2 × 0.4 mm</t>
+        </is>
+      </c>
       <c r="N5" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -732,7 +704,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -782,7 +754,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>90403A859</t>
+          <t>90403A858</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -790,7 +762,11 @@
           <t>15.41</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>M2 × 0.4 mm</t>
+        </is>
+      </c>
       <c r="N6" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -800,7 +776,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -850,7 +826,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>90403A860</t>
+          <t>90403A859</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -858,7 +834,11 @@
           <t>15.41</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>M2 × 0.4 mm</t>
+        </is>
+      </c>
       <c r="N7" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -868,21 +848,69 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>M3 × 0.5 mm</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>No. 1</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>ASME B18.13.1M</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>90403A860</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>15.41</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>M2 × 0.4 mm</t>
+        </is>
+      </c>
       <c r="N8" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -950,7 +978,11 @@
           <t>19.87</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="N9" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -1018,7 +1050,11 @@
           <t>7.59</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="N10" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -1086,7 +1122,11 @@
           <t>9.98</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="N11" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -1154,7 +1194,11 @@
           <t>15.24</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="N12" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -1222,7 +1266,11 @@
           <t>8.74</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="N13" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -1232,21 +1280,69 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>No. 2</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>ASME B18.13.1M</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>90403A861</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>14.04</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
           <t>M4 × 0.7 mm</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -1256,7 +1352,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1306,15 +1402,19 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>90403A861</t>
+          <t>90403A862</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>14.04</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr"/>
+          <t>14.08</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="N15" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -1324,7 +1424,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1374,15 +1474,19 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>90403A862</t>
+          <t>90403A863</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>14.08</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr"/>
+          <t>14.12</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="N16" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -1392,7 +1496,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1442,15 +1546,19 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>90403A863</t>
+          <t>90403A864</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>14.12</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr"/>
+          <t>14.16</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="N17" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -1460,7 +1568,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1510,15 +1618,19 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>90403A864</t>
+          <t>90403A865</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>14.16</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr"/>
+          <t>14.20</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="N18" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -1528,7 +1640,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1538,22 +1650,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>9.50</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>8.58</t>
+          <t>9.73</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1578,15 +1690,19 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>90403A865</t>
+          <t>90403A866</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>14.20</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr"/>
+          <t>14.27</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="N19" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -1596,21 +1712,69 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>9.73</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>No. 2</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>ASME B18.13.1M</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>90403A867</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>14.35</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
           <t>M5 × 0.8 mm</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -1620,7 +1784,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1670,15 +1834,19 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>90403A866</t>
+          <t>90403A868</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>14.27</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr"/>
+          <t>14.39</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="N21" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -1688,7 +1856,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1738,15 +1906,19 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>90403A867</t>
+          <t>90403A869</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>14.35</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr"/>
+          <t>14.51</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="N22" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -1756,7 +1928,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1806,15 +1978,19 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>90403A868</t>
+          <t>90403A870</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>14.39</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr"/>
+          <t>14.63</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="N23" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -1824,7 +2000,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1834,27 +2010,27 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>9.50</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>9.73</t>
+          <t>12.14</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>No. 2</t>
+          <t>No. 3</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1869,20 +2045,24 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>90403A869</t>
+          <t>90403A871</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>14.51</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr"/>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="N24" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -1892,7 +2072,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1902,27 +2082,27 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>9.50</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>9.73</t>
+          <t>12.14</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>No. 2</t>
+          <t>No. 3</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1937,20 +2117,24 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>90403A870</t>
+          <t>90403A872</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>14.63</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr"/>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="N25" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -1960,21 +2144,69 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>12.14</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>No. 3</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>ASME B18.13.1M</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>90403A873</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
           <t>M6 × 1 mm</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -1984,65 +2216,69 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>12.14</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>No. 3</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>ASME B18.13.1M</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>12.14</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>No. 3</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>60,000</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>ASME B18.13.1M</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>90403A871</t>
+          <t>90403A874</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>8.37</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr"/>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="N27" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -2052,7 +2288,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2102,15 +2338,19 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>90403A872</t>
+          <t>90403A875</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>8.41</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr"/>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="N28" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -2120,7 +2360,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2130,27 +2370,27 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>16.00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>12.14</t>
+          <t>15.50</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>No. 3</t>
+          <t>No. 4</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -2170,15 +2410,19 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>90403A873</t>
+          <t>90403A876</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>8.45</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr"/>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>M8 × 1.25 mm</t>
+        </is>
+      </c>
       <c r="N29" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -2188,7 +2432,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2198,27 +2442,27 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>16.00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>12.14</t>
+          <t>15.50</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>No. 3</t>
+          <t>No. 4</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -2238,15 +2482,19 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>90403A874</t>
+          <t>90403A877</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>8.53</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr"/>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>M8 × 1.25 mm</t>
+        </is>
+      </c>
       <c r="N30" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -2256,7 +2504,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2266,27 +2514,27 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>16.00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>12.14</t>
+          <t>15.50</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>No. 3</t>
+          <t>No. 4</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -2306,15 +2554,19 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>90403A875</t>
+          <t>90403A878</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>8.60</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr"/>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>M8 × 1.25 mm</t>
+        </is>
+      </c>
       <c r="N31" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -2324,21 +2576,69 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>16.00</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>15.50</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>No. 4</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>ASME B18.13.1M</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>90403A879</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
           <t>M8 × 1.25 mm</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -2348,7 +2648,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2398,288 +2698,20 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>90403A876</t>
+          <t>90403A880</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>9.23</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr"/>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>M8 × 1.25 mm</t>
+        </is>
+      </c>
       <c r="N33" t="inlineStr">
-        <is>
-          <t>Zinc-Plated Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>16.00</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>15.50</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>No. 4</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>60,000</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>ASME B18.13.1M</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>90403A877</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>9.35</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>Zinc-Plated Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>16.00</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>15.50</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>No. 4</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>60,000</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>ASME B18.13.1M</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>90403A878</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>9.46</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>Zinc-Plated Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>16.00</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>15.50</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>No. 4</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>60,000</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>ASME B18.13.1M</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>90403A879</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>9.58</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>Zinc-Plated Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>16.00</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>15.50</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>No. 4</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>60,000</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>ASME B18.13.1M</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>90403A880</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>9.75</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
         </is>
